--- a/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9_捷豹组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -468,6 +468,59 @@
     <t>孙伟</t>
     <rPh sb="0" eb="1">
       <t>s'w</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝催租短信优化</t>
+    <rPh sb="0" eb="1">
+      <t>mo'gu'b</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cui'z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>duan'x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>you'h</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>lts</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <rPh sb="0" eb="1">
+      <t>w'h</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超、王云飞</t>
+    <rPh sb="0" eb="1">
+      <t>s'c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wang'yun'f</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>定金抵扣自动扣除</t>
+    <rPh sb="0" eb="1">
+      <t>ding'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>di'kou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'dong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kou'chu</t>
     </rPh>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -873,7 +926,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="112">
+  <cellStyleXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1202,6 +1255,30 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1460,7 +1537,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="112">
+  <cellStyles count="120">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
@@ -1521,6 +1598,10 @@
     <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="个性色4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
@@ -1573,6 +1654,10 @@
     <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1945,7 +2030,7 @@
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2435,22 +2520,52 @@
       <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="B9" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="39">
+        <v>42725</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="39">
+        <v>42725</v>
+      </c>
       <c r="K9" s="38"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="47"/>
+      <c r="L9" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="39">
+        <v>42725</v>
+      </c>
+      <c r="Q9" s="47" t="s">
+        <v>76</v>
+      </c>
       <c r="R9" s="55"/>
       <c r="S9" s="55"/>
       <c r="T9" s="51"/>
@@ -2461,22 +2576,52 @@
       <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
+      <c r="B10" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="39">
+        <v>42725</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="39">
+        <v>42725</v>
+      </c>
       <c r="K10" s="38"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="47"/>
+      <c r="L10" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="39">
+        <v>42725</v>
+      </c>
+      <c r="Q10" s="47" t="s">
+        <v>76</v>
+      </c>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
       <c r="T10" s="51"/>

--- a/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9_捷豹组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="103">
   <si>
     <t>No</t>
   </si>
@@ -521,6 +521,40 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>kou'chu</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客撤销申请退房</t>
+    <rPh sb="0" eb="1">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>che'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shen'q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tui'f</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>武孟华</t>
+    <rPh sb="0" eb="1">
+      <t>w'm'h</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈美</t>
+    <rPh sb="0" eb="1">
+      <t>chen'm</t>
     </rPh>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -926,7 +960,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="120">
+  <cellStyleXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1279,6 +1313,24 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1537,7 +1589,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="120">
+  <cellStyles count="126">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
@@ -1602,6 +1654,9 @@
     <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="个性色4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
@@ -1658,6 +1713,9 @@
     <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2029,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2632,22 +2690,52 @@
       <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="39"/>
+      <c r="B11" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="39">
+        <v>42725</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="39">
+        <v>42725</v>
+      </c>
       <c r="K11" s="38"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="47"/>
+      <c r="L11" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="39">
+        <v>42725</v>
+      </c>
+      <c r="Q11" s="47" t="s">
+        <v>76</v>
+      </c>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
       <c r="T11" s="51"/>
@@ -6200,7 +6288,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">

--- a/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9_捷豹组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="104">
   <si>
     <t>No</t>
   </si>
@@ -555,6 +555,13 @@
     <t>陈美</t>
     <rPh sb="0" eb="1">
       <t>chen'm</t>
+    </rPh>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <rPh sb="0" eb="1">
+      <t>c'b</t>
     </rPh>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -2087,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2495,7 +2502,7 @@
       </c>
       <c r="K7" s="38"/>
       <c r="L7" s="47" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="M7" s="38" t="s">
         <v>73</v>
